--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431042.797697359</v>
+        <v>1458508.141662362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356212.29808314</v>
+        <v>10356212.29808315</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584563</v>
+        <v>6486630.972584558</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>98.68829356438695</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.36512201548771</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.50388216742027</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>175.6705644580002</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>108.2920912537563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.9884280252817</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>343.4559498457149</v>
+        <v>12.19959438300816</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.392482396883</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>73.6261119179365</v>
       </c>
       <c r="G15" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>78.81376500631589</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>156.0268009525554</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>198.906589267594</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>125.6190767149353</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>86.20197997995399</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>84.80628138988411</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>185.9010580663223</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>142.3413192459774</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0795870313718</v>
       </c>
       <c r="C20" t="n">
-        <v>79.6608991826031</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968158</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246433</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742252</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>53.76397372915885</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>126.069636871049</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>189.4734463076464</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>252.9734144529234</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>134.9469826428695</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T24" t="n">
         <v>192.192932426668</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>166.7615892084467</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>96.43633818724409</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>272.007563783484</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.0499378478622</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>131.4418070135029</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172617</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.5804836114535</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>127.1438398524719</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>247.5167973448263</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>150.6052553956426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246427</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.1397745749277</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.2216220433005</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
         <v>286.2285878140705</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>65.806056728353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>139.7624809120106</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>68.35371417841483</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.7584086986641</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>223.9387280583148</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>105.6250037084229</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>21.69126064627671</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>282.0146274727873</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.22810184760129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>13.57605988800549</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.05395835598846</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
@@ -3562,13 +3562,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.50388216741982</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512208</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.57516593823388</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
@@ -3720,7 +3720,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.22810184760129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>159.2525335365919</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>305.7457958360428</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>232.7308777252783</v>
+        <v>247.2151746461709</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>95.00823514637243</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>20.87224906941986</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8112657109832</v>
+        <v>175.6705644579988</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109.9881757906004</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
@@ -4191,10 +4191,10 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>36.36180106653084</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.935496591497</v>
+        <v>1334.518515991569</v>
       </c>
       <c r="C11" t="n">
-        <v>1621.935496591497</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="D11" t="n">
-        <v>1621.935496591497</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E11" t="n">
-        <v>1236.147243993252</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F11" t="n">
-        <v>825.1613392036447</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>409.3974005516682</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H11" t="n">
-        <v>104.7320935908108</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T11" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U11" t="n">
-        <v>2364.843483837422</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="V11" t="n">
-        <v>2364.843483837422</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="W11" t="n">
-        <v>2012.074828567308</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="X11" t="n">
-        <v>2012.074828567308</v>
+        <v>2111.257688031502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1621.935496591497</v>
+        <v>1721.118356055691</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>413.775532849196</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L12" t="n">
-        <v>1030.271165841883</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M12" t="n">
-        <v>1385.668770090555</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N12" t="n">
-        <v>1764.881336320859</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O12" t="n">
-        <v>2089.566954034616</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519648147148</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>332.1144239975855</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="C13" t="n">
-        <v>332.1144239975855</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D13" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E13" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F13" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1386.128447054741</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U13" t="n">
-        <v>1097.008661383963</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V13" t="n">
-        <v>842.3241731780762</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W13" t="n">
-        <v>552.9070031411156</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X13" t="n">
-        <v>552.9070031411156</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y13" t="n">
-        <v>332.1144239975855</v>
+        <v>327.2167942497534</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240658</v>
@@ -5293,37 +5293,37 @@
         <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.843483837422</v>
+        <v>2033.780596493853</v>
       </c>
       <c r="W14" t="n">
-        <v>2364.843483837422</v>
+        <v>2033.780596493853</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.918281973064</v>
+        <v>2021.457773884754</v>
       </c>
       <c r="Y14" t="n">
-        <v>2017.918281973064</v>
+        <v>1631.318441908942</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C15" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D15" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E15" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F15" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440159</v>
+        <v>119.1040605898642</v>
       </c>
       <c r="K15" t="n">
-        <v>475.7435727620244</v>
+        <v>560.6342506504925</v>
       </c>
       <c r="L15" t="n">
-        <v>763.7078559446869</v>
+        <v>848.5985338331552</v>
       </c>
       <c r="M15" t="n">
-        <v>1119.105460193358</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N15" t="n">
-        <v>1498.318026423663</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O15" t="n">
-        <v>1823.00364413742</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852667</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960407</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.4935294713694</v>
+        <v>672.2217391984268</v>
       </c>
       <c r="C16" t="n">
-        <v>447.5573465434625</v>
+        <v>503.2855562705199</v>
       </c>
       <c r="D16" t="n">
-        <v>297.4407071311267</v>
+        <v>503.2855562705199</v>
       </c>
       <c r="E16" t="n">
-        <v>217.8308434883834</v>
+        <v>503.2855562705199</v>
       </c>
       <c r="F16" t="n">
-        <v>217.8308434883834</v>
+        <v>356.3956087726095</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112051</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T16" t="n">
-        <v>1308.3517434821</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U16" t="n">
-        <v>1308.3517434821</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="V16" t="n">
-        <v>1308.3517434821</v>
+        <v>961.6389092353874</v>
       </c>
       <c r="W16" t="n">
-        <v>1018.934573445139</v>
+        <v>672.2217391984268</v>
       </c>
       <c r="X16" t="n">
-        <v>1018.934573445139</v>
+        <v>672.2217391984268</v>
       </c>
       <c r="Y16" t="n">
-        <v>798.1419943016091</v>
+        <v>672.2217391984268</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1215.554503256966</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="C17" t="n">
-        <v>846.5919863165539</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="D17" t="n">
-        <v>846.5919863165539</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E17" t="n">
-        <v>460.8037337183096</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L17" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="U17" t="n">
-        <v>1954.922998591201</v>
+        <v>2111.257688031503</v>
       </c>
       <c r="V17" t="n">
-        <v>1954.922998591201</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="W17" t="n">
-        <v>1602.154343321087</v>
+        <v>1780.194800687932</v>
       </c>
       <c r="X17" t="n">
-        <v>1602.154343321087</v>
+        <v>1653.30684441022</v>
       </c>
       <c r="Y17" t="n">
-        <v>1602.154343321087</v>
+        <v>1263.167512434408</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>909.7854722244628</v>
+        <v>859.138299241652</v>
       </c>
       <c r="C18" t="n">
-        <v>735.3324429433358</v>
+        <v>684.685269960525</v>
       </c>
       <c r="D18" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992738</v>
       </c>
       <c r="E18" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J18" t="n">
-        <v>141.5150087964422</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570704</v>
+        <v>288.9454078621916</v>
       </c>
       <c r="L18" t="n">
-        <v>871.009482039733</v>
+        <v>763.7078559446877</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1119.105460193359</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.619652518709</v>
+        <v>1498.318026423664</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232466</v>
+        <v>1823.003644137422</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S18" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T18" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779003</v>
       </c>
       <c r="U18" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V18" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W18" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232207</v>
       </c>
       <c r="X18" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y18" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.81782892870198</v>
+        <v>663.8123809975316</v>
       </c>
       <c r="C19" t="n">
-        <v>49.81782892870198</v>
+        <v>663.8123809975316</v>
       </c>
       <c r="D19" t="n">
-        <v>49.81782892870198</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E19" t="n">
-        <v>49.81782892870198</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F19" t="n">
-        <v>49.81782892870198</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870202</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477639</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1224.350082043337</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.350082043337</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V19" t="n">
-        <v>969.6655938374497</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="W19" t="n">
-        <v>680.2484238004891</v>
+        <v>807.5914913470037</v>
       </c>
       <c r="X19" t="n">
-        <v>452.2588729024718</v>
+        <v>807.5914913470037</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.4662937589417</v>
+        <v>663.8123809975316</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>861.8698982662945</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="C20" t="n">
-        <v>781.4043435363924</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="D20" t="n">
-        <v>423.1386449296419</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E20" t="n">
-        <v>423.1386449296419</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F20" t="n">
-        <v>423.1386449296419</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G20" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H20" t="n">
         <v>118.4733379687844</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J20" t="n">
         <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317526</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561749</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.074828567308</v>
+        <v>2364.843483837425</v>
       </c>
       <c r="X20" t="n">
-        <v>1638.609070306228</v>
+        <v>1991.377725576345</v>
       </c>
       <c r="Y20" t="n">
-        <v>1248.469738330416</v>
+        <v>1991.377725576345</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>560.6342506504913</v>
+        <v>583.0451988570724</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331539</v>
+        <v>871.0094820397351</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081825</v>
+        <v>1226.407086288407</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.20870431213</v>
+        <v>1605.619652518712</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025887</v>
+        <v>1930.305270232469</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994178</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.1608964752161</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="C22" t="n">
-        <v>177.1608964752161</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="D22" t="n">
-        <v>177.1608964752161</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="E22" t="n">
-        <v>177.1608964752161</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="F22" t="n">
-        <v>177.1608964752161</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870203</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547764</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490678</v>
+        <v>242.114563649068</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394358</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642504</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5940,22 +5940,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1386.128447054742</v>
+        <v>1386.128447054743</v>
       </c>
       <c r="U22" t="n">
         <v>1097.008661383964</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.008661383964</v>
+        <v>842.3241731780776</v>
       </c>
       <c r="W22" t="n">
-        <v>807.5914913470033</v>
+        <v>552.907003141117</v>
       </c>
       <c r="X22" t="n">
-        <v>579.6019404489859</v>
+        <v>324.9174522430997</v>
       </c>
       <c r="Y22" t="n">
-        <v>358.8093613054558</v>
+        <v>104.1248730995696</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>864.0000391320445</v>
+        <v>1125.207489244183</v>
       </c>
       <c r="C23" t="n">
-        <v>864.0000391320445</v>
+        <v>1125.207489244183</v>
       </c>
       <c r="D23" t="n">
-        <v>505.734340525294</v>
+        <v>766.9417906374322</v>
       </c>
       <c r="E23" t="n">
-        <v>119.9460879270497</v>
+        <v>766.9417906374322</v>
       </c>
       <c r="F23" t="n">
-        <v>119.9460879270497</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="G23" t="n">
-        <v>119.9460879270497</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952467</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382139</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939268</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.976233479671</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324919</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.093662248014</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.507866442092</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V23" t="n">
-        <v>1993.507866442092</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="W23" t="n">
-        <v>1640.739211171978</v>
+        <v>1515.346821219994</v>
       </c>
       <c r="X23" t="n">
-        <v>1640.739211171978</v>
+        <v>1515.346821219994</v>
       </c>
       <c r="Y23" t="n">
-        <v>1250.599879196166</v>
+        <v>1125.207489244183</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>552.2387424629095</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L24" t="n">
-        <v>840.2030256455721</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.600629894244</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N24" t="n">
-        <v>1574.813196124549</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O24" t="n">
-        <v>1899.498813838306</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>518.2564948096031</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="C25" t="n">
-        <v>349.3203118816961</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="D25" t="n">
-        <v>199.2036724693604</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1442.24706845769</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.732572290181</v>
+        <v>1219.155147307506</v>
       </c>
       <c r="U25" t="n">
-        <v>989.3221296768033</v>
+        <v>930.0353616367273</v>
       </c>
       <c r="V25" t="n">
-        <v>989.3221296768033</v>
+        <v>675.3508734308405</v>
       </c>
       <c r="W25" t="n">
-        <v>699.9049596398428</v>
+        <v>385.9337033938799</v>
       </c>
       <c r="X25" t="n">
-        <v>699.9049596398428</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.9049596398428</v>
+        <v>157.9441524958626</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>878.0404223285514</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="C26" t="n">
-        <v>878.0404223285514</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="D26" t="n">
-        <v>878.0404223285514</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E26" t="n">
-        <v>878.0404223285514</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F26" t="n">
         <v>467.0545175389437</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952467</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382139</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131802</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
         <v>2075.668575230788</v>
@@ -6247,31 +6247,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.938410031165</v>
+        <v>2184.895185944765</v>
       </c>
       <c r="V26" t="n">
-        <v>1770.875522687594</v>
+        <v>1853.832298601194</v>
       </c>
       <c r="W26" t="n">
-        <v>1638.106020653753</v>
+        <v>1501.06364333108</v>
       </c>
       <c r="X26" t="n">
-        <v>1264.640262392673</v>
+        <v>1127.59788507</v>
       </c>
       <c r="Y26" t="n">
-        <v>1264.640262392673</v>
+        <v>1127.59788507</v>
       </c>
     </row>
     <row r="27">
@@ -6287,40 +6287,40 @@
         <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125362</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070807</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339657</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>415.2482828074615</v>
+        <v>634.2717485637554</v>
       </c>
       <c r="L27" t="n">
-        <v>703.2125659901241</v>
+        <v>922.236031746418</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.610170238795</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N27" t="n">
-        <v>1437.8227364691</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O27" t="n">
-        <v>1762.508354182857</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P27" t="n">
         <v>2222.787586700861</v>
@@ -6332,7 +6332,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S27" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T27" t="n">
         <v>2234.084585692265</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.9297745337548</v>
+        <v>772.9618506491748</v>
       </c>
       <c r="C28" t="n">
-        <v>517.3333264413775</v>
+        <v>772.9618506491748</v>
       </c>
       <c r="D28" t="n">
-        <v>367.2166870290418</v>
+        <v>622.8452112368391</v>
       </c>
       <c r="E28" t="n">
-        <v>219.3035934466487</v>
+        <v>474.932117654446</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3035934466487</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696727</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696727</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.915933070317</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.824011920133</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>1283.824011920133</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V28" t="n">
-        <v>1029.139523714246</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="W28" t="n">
-        <v>739.7223536772849</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="X28" t="n">
-        <v>739.7223536772849</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="Y28" t="n">
-        <v>518.9297745337548</v>
+        <v>772.9618506491748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1690.749882573629</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C29" t="n">
-        <v>1690.749882573629</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D29" t="n">
-        <v>1332.484183966878</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="E29" t="n">
-        <v>946.6959313686339</v>
+        <v>301.3075459019433</v>
       </c>
       <c r="F29" t="n">
-        <v>535.7100265790262</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.753895820994</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382139</v>
+        <v>437.3637422189594</v>
       </c>
       <c r="L29" t="n">
-        <v>846.5066693681795</v>
+        <v>781.4474136939259</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2229.47624323941</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X29" t="n">
-        <v>2077.34972263775</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y29" t="n">
-        <v>2077.34972263775</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="30">
@@ -6524,61 +6524,61 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
         <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915339</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>634.271748563756</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L30" t="n">
-        <v>922.2360317464186</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.63363599509</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
-        <v>2234.084585692266</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U30" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328.6895442080184</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="C31" t="n">
-        <v>328.6895442080184</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="D31" t="n">
-        <v>200.2655294858693</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="E31" t="n">
-        <v>200.2655294858693</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F31" t="n">
-        <v>200.2655294858693</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G31" t="n">
         <v>200.2655294858693</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6648,25 +6648,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163192</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1321.573332492414</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V31" t="n">
-        <v>1066.888844286527</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W31" t="n">
-        <v>777.4716742495659</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="X31" t="n">
-        <v>549.4821233515486</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.6895442080184</v>
+        <v>646.7054835063909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.276051449673</v>
+        <v>1189.504699223737</v>
       </c>
       <c r="C32" t="n">
-        <v>919.3135345092617</v>
+        <v>820.5421822833252</v>
       </c>
       <c r="D32" t="n">
-        <v>852.8427701371879</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="E32" t="n">
-        <v>467.0545175389437</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402486</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N32" t="n">
         <v>1686.885626999171</v>
@@ -6721,31 +6721,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.084201475011</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750687</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750687</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2438.480981750687</v>
+        <v>2297.306758607241</v>
       </c>
       <c r="V32" t="n">
-        <v>2438.480981750687</v>
+        <v>1966.24387126367</v>
       </c>
       <c r="W32" t="n">
-        <v>2438.480981750687</v>
+        <v>1966.24387126367</v>
       </c>
       <c r="X32" t="n">
-        <v>2065.015223489607</v>
+        <v>1966.24387126367</v>
       </c>
       <c r="Y32" t="n">
-        <v>1674.875891513795</v>
+        <v>1576.104539287859</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.538677389286</v>
+        <v>215.1525067097064</v>
       </c>
       <c r="K33" t="n">
-        <v>634.2717485637555</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L33" t="n">
-        <v>922.2360317464181</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.63363599509</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1656.846202225395</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.531819939152</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2222.787586700861</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>643.8683005823528</v>
+        <v>436.1608650485571</v>
       </c>
       <c r="C34" t="n">
-        <v>474.932117654446</v>
+        <v>267.2246821206502</v>
       </c>
       <c r="D34" t="n">
-        <v>474.932117654446</v>
+        <v>267.2246821206502</v>
       </c>
       <c r="E34" t="n">
-        <v>474.932117654446</v>
+        <v>267.2246821206502</v>
       </c>
       <c r="F34" t="n">
-        <v>474.932117654446</v>
+        <v>120.3347346227398</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9191030947646</v>
+        <v>120.3347346227398</v>
       </c>
       <c r="H34" t="n">
-        <v>157.9441524958626</v>
+        <v>120.3347346227398</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K34" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6885,25 +6885,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.601678533241</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T34" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U34" t="n">
-        <v>1190.509757383056</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.509757383056</v>
+        <v>1356.008629957305</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.509757383056</v>
+        <v>1066.591459920344</v>
       </c>
       <c r="X34" t="n">
-        <v>1046.309344556123</v>
+        <v>838.6019090223269</v>
       </c>
       <c r="Y34" t="n">
-        <v>825.5167654125926</v>
+        <v>617.8093298787968</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1765.699413350333</v>
+        <v>792.1011618700536</v>
       </c>
       <c r="C35" t="n">
-        <v>1765.699413350333</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="D35" t="n">
-        <v>1407.433714743583</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="E35" t="n">
-        <v>1181.232979331143</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="F35" t="n">
-        <v>770.247074541536</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
@@ -6958,31 +6958,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837422</v>
+        <v>2384.1995234973</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326145</v>
+        <v>2175.194784986023</v>
       </c>
       <c r="U35" t="n">
-        <v>2155.838745326145</v>
+        <v>1921.608989180101</v>
       </c>
       <c r="V35" t="n">
-        <v>2155.838745326145</v>
+        <v>1921.608989180101</v>
       </c>
       <c r="W35" t="n">
-        <v>2155.838745326145</v>
+        <v>1568.840333909987</v>
       </c>
       <c r="X35" t="n">
-        <v>2155.838745326145</v>
+        <v>1568.840333909987</v>
       </c>
       <c r="Y35" t="n">
-        <v>1765.699413350333</v>
+        <v>1178.701001934175</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E36" t="n">
-        <v>376.513405293816</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F36" t="n">
-        <v>229.978847320701</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005659</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570704</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L36" t="n">
-        <v>871.009482039733</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M36" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870198</v>
+        <v>386.7670264162904</v>
       </c>
       <c r="C37" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D37" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870198</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
         <v>513.4770511394356</v>
@@ -7128,19 +7128,19 @@
         <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>899.9172217540125</v>
+        <v>904.1737473512683</v>
       </c>
       <c r="V37" t="n">
-        <v>645.2327335481257</v>
+        <v>904.1737473512683</v>
       </c>
       <c r="W37" t="n">
-        <v>355.8155635111651</v>
+        <v>614.7565773143077</v>
       </c>
       <c r="X37" t="n">
-        <v>127.8260126131477</v>
+        <v>386.7670264162904</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.81782892870198</v>
+        <v>386.7670264162904</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1234.833370977037</v>
+        <v>807.5849719397629</v>
       </c>
       <c r="C38" t="n">
-        <v>1234.833370977037</v>
+        <v>807.5849719397629</v>
       </c>
       <c r="D38" t="n">
-        <v>876.5676723702861</v>
+        <v>449.3192733330124</v>
       </c>
       <c r="E38" t="n">
-        <v>876.5676723702861</v>
+        <v>63.53102073476816</v>
       </c>
       <c r="F38" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962851</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.331892540161</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T38" t="n">
-        <v>2231.327154028884</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U38" t="n">
-        <v>1977.741358222962</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V38" t="n">
-        <v>1977.741358222962</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W38" t="n">
-        <v>1624.972702952848</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="X38" t="n">
-        <v>1624.972702952848</v>
+        <v>1197.724303915575</v>
       </c>
       <c r="Y38" t="n">
-        <v>1234.833370977037</v>
+        <v>807.5849719397629</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F39" t="n">
         <v>302.1435952757001</v>
@@ -7247,40 +7247,40 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>560.6342506504913</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L39" t="n">
-        <v>848.5985338331539</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.996138081825</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N39" t="n">
-        <v>1583.20870431213</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O39" t="n">
-        <v>1907.894322025887</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T39" t="n">
         <v>2232.611835734</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="C40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="D40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="E40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="F40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
         <v>513.4770511394356</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T40" t="n">
-        <v>1189.037007424791</v>
+        <v>1282.351261961867</v>
       </c>
       <c r="U40" t="n">
-        <v>899.9172217540125</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="V40" t="n">
-        <v>645.2327335481257</v>
+        <v>993.2314762910891</v>
       </c>
       <c r="W40" t="n">
-        <v>355.8155635111651</v>
+        <v>703.8143062541285</v>
       </c>
       <c r="X40" t="n">
-        <v>127.8260126131477</v>
+        <v>475.8247553561112</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.81782892870198</v>
+        <v>255.032176212581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1764.657032903905</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C41" t="n">
-        <v>1395.694515963493</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D41" t="n">
-        <v>1037.428817356742</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E41" t="n">
-        <v>1037.428817356742</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F41" t="n">
-        <v>626.442912567135</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G41" t="n">
-        <v>210.6789739151585</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819849</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799502</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435099</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435099</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W41" t="n">
-        <v>2138.122791164984</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="X41" t="n">
-        <v>1764.657032903905</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="Y41" t="n">
-        <v>1764.657032903905</v>
+        <v>1262.35592496853</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F42" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088824</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504913</v>
+        <v>583.0451988570723</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331539</v>
+        <v>871.0094820397348</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081825</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.20870431213</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025887</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>664.8355270820142</v>
+        <v>536.883665828626</v>
       </c>
       <c r="C43" t="n">
-        <v>664.8355270820142</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D43" t="n">
-        <v>514.7188876696785</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490678</v>
@@ -7602,19 +7602,19 @@
         <v>1189.037007424791</v>
       </c>
       <c r="U43" t="n">
-        <v>899.9172217540125</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V43" t="n">
-        <v>664.8355270820142</v>
+        <v>939.3247098023959</v>
       </c>
       <c r="W43" t="n">
-        <v>664.8355270820142</v>
+        <v>939.3247098023959</v>
       </c>
       <c r="X43" t="n">
-        <v>664.8355270820142</v>
+        <v>939.3247098023959</v>
       </c>
       <c r="Y43" t="n">
-        <v>664.8355270820142</v>
+        <v>718.5321306588658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1727.286356198207</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="C44" t="n">
-        <v>1358.323839257795</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.35592496853</v>
+        <v>1567.021231929388</v>
       </c>
       <c r="E44" t="n">
-        <v>876.5676723702861</v>
+        <v>1181.232979331143</v>
       </c>
       <c r="F44" t="n">
-        <v>465.5817675806785</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
         <v>2474.446703561746</v>
@@ -7675,25 +7675,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X44" t="n">
-        <v>2117.425688174019</v>
+        <v>2343.760403969321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1727.286356198207</v>
+        <v>1953.62107199351</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416497</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605228</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992715</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E45" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F45" t="n">
-        <v>229.978847320701</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005659</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964427</v>
       </c>
       <c r="K45" t="n">
-        <v>413.7755328491961</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L45" t="n">
-        <v>701.7398160318587</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M45" t="n">
-        <v>1057.13742028053</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.349986510835</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O45" t="n">
-        <v>1761.035604224592</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P45" t="n">
         <v>2171.561036994176</v>
@@ -7754,25 +7754,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.3955506240876</v>
+        <v>903.6113575016763</v>
       </c>
       <c r="C46" t="n">
-        <v>473.4593676961807</v>
+        <v>734.6751745737694</v>
       </c>
       <c r="D46" t="n">
-        <v>473.4593676961807</v>
+        <v>584.5585351614336</v>
       </c>
       <c r="E46" t="n">
         <v>473.4593676961807</v>
@@ -7803,7 +7803,7 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
         <v>73.44728005477631</v>
@@ -7830,28 +7830,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S46" t="n">
-        <v>1412.128928574975</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.037007424791</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U46" t="n">
-        <v>899.9172217540125</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="V46" t="n">
-        <v>863.1881297676177</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="W46" t="n">
-        <v>863.1881297676177</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="X46" t="n">
-        <v>863.1881297676177</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="Y46" t="n">
-        <v>642.3955506240876</v>
+        <v>1085.259822331916</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L12" t="n">
-        <v>331.8498482929541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.56957863612354</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.967937521058715</v>
       </c>
       <c r="K15" t="n">
-        <v>188.6850150503366</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>32.60525894184465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.6850150503369</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>148.3421391932274</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053376</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.89368480302832</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7.177264930047045</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>315.5762314807235</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302832</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>72.89368480302926</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>221.2358239962566</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>221.2358239962574</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930045851</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>72.89368480302954</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.2358239962571</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>72.8936848030296</v>
+        <v>72.89368480302835</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>105.4989437448738</v>
       </c>
       <c r="K33" t="n">
-        <v>221.2358239962567</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>170.9794606140144</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.3421391932274</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932274</v>
+        <v>170.9794606140162</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184511</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>170.9794606140144</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>266.5845982066206</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>13.60383193419395</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.14070125298304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>71.539888928181</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>16.62704499293068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
         <v>105.5870378728063</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>26.27515083275409</v>
+        <v>357.5315062954609</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.14070125298436</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>71.44310047544738</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>67.62019764025328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.30608346152914</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>52.1433485802682</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>244.1120239635337</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>71.44310047544695</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>50.1407012529848</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23940,25 +23940,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>34.95994387236053</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>76.24333410611737</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>83.65425463210875</v>
       </c>
       <c r="C20" t="n">
-        <v>285.6119925884045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544636</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>126.0680064527784</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>40.2632475430356</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>17.44124481851807</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>96.26755426448963</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>28.358936025205</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>189.7922496268264</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>110.7262778799966</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>217.7991617039102</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>165.6663374871743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.44081349962289</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>159.3592483968851</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>219.1258452828264</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.47569844328468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>16.21234060326864</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>288.87698489233</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24973,16 +24973,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>111.2874569358517</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>37.2333236943915</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.95124669037307</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>157.991642013947</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>19.16247926327725</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>71.44310047544911</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.485201092913</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4.213960341283212</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.3565515044935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>393.2999858537059</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.73352461571167</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>71.44310047544727</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>49.91003515467909</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.3565515044935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>142.366120354657</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>67.96895394968163</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>43.49517288137025</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544728</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>19.40676559854967</v>
+        <v>4.922468677657093</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>259.6748064743105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968163</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>348.8588516090492</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246436</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.1407012529844</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>36.44578685596882</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7758422572971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665271.1679197936</v>
+        <v>665271.1679197939</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>665271.1679197936</v>
+        <v>665271.167919794</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>665271.1679197936</v>
+        <v>665271.167919794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677975.8166268874</v>
+        <v>677975.8166268873</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677975.8166268874</v>
+        <v>677975.8166268873</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677975.8166268874</v>
+        <v>677975.8166268873</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665271.1679197937</v>
+        <v>665271.167919794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665271.1679197937</v>
+        <v>665271.167919794</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665271.1679197937</v>
+        <v>665271.167919794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665271.1679197936</v>
+        <v>665271.1679197937</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
-        <v>406590.8011732852</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="F2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732856</v>
       </c>
       <c r="G2" t="n">
-        <v>406590.8011732852</v>
+        <v>406590.8011732858</v>
       </c>
       <c r="H2" t="n">
+        <v>406590.8011732857</v>
+      </c>
+      <c r="I2" t="n">
+        <v>412474.1404974385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>412474.1404974385</v>
+      </c>
+      <c r="K2" t="n">
+        <v>412474.1404974387</v>
+      </c>
+      <c r="L2" t="n">
+        <v>412474.1404974384</v>
+      </c>
+      <c r="M2" t="n">
         <v>406590.8011732855</v>
       </c>
-      <c r="I2" t="n">
-        <v>412474.1404974386</v>
-      </c>
-      <c r="J2" t="n">
-        <v>412474.1404974386</v>
-      </c>
-      <c r="K2" t="n">
-        <v>412474.1404974384</v>
-      </c>
-      <c r="L2" t="n">
-        <v>412474.1404974386</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406590.8011732853</v>
-      </c>
       <c r="N2" t="n">
-        <v>406590.8011732853</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="O2" t="n">
-        <v>406590.8011732854</v>
+        <v>406590.8011732855</v>
       </c>
       <c r="P2" t="n">
-        <v>406590.8011732854</v>
+        <v>406590.8011732855</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761237</v>
+        <v>924651.5793761241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648317</v>
+        <v>4895.439270648106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468585</v>
+        <v>150597.3382468592</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>18245.60406141439</v>
+        <v>18245.6040614144</v>
       </c>
       <c r="F4" t="n">
         <v>18245.60406141439</v>
       </c>
       <c r="G4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.6040614144</v>
       </c>
       <c r="H4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.6040614144</v>
       </c>
       <c r="I4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547189</v>
       </c>
       <c r="J4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547189</v>
       </c>
       <c r="K4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547189</v>
       </c>
       <c r="L4" t="n">
-        <v>21593.82968547192</v>
+        <v>21593.82968547189</v>
       </c>
       <c r="M4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141443</v>
       </c>
       <c r="N4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.6040614144</v>
       </c>
       <c r="O4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.6040614144</v>
       </c>
       <c r="P4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425676</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425677</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93816.65368921628</v>
+        <v>93856.3758900293</v>
       </c>
       <c r="C6" t="n">
-        <v>93816.65368921634</v>
+        <v>93856.37589002925</v>
       </c>
       <c r="D6" t="n">
-        <v>93816.65368921628</v>
+        <v>93856.3758900293</v>
       </c>
       <c r="E6" t="n">
-        <v>-599679.9184531432</v>
+        <v>-594759.5053369731</v>
       </c>
       <c r="F6" t="n">
-        <v>324971.6609229806</v>
+        <v>329892.0740391511</v>
       </c>
       <c r="G6" t="n">
-        <v>324971.6609229805</v>
+        <v>329892.0740391512</v>
       </c>
       <c r="H6" t="n">
-        <v>324971.6609229808</v>
+        <v>329892.0740391512</v>
       </c>
       <c r="I6" t="n">
-        <v>321709.9468405966</v>
+        <v>326434.2486459618</v>
       </c>
       <c r="J6" t="n">
-        <v>326605.3861112449</v>
+        <v>331329.6879166099</v>
       </c>
       <c r="K6" t="n">
-        <v>326605.3861112446</v>
+        <v>331329.6879166101</v>
       </c>
       <c r="L6" t="n">
-        <v>326605.3861112449</v>
+        <v>331329.6879166098</v>
       </c>
       <c r="M6" t="n">
-        <v>174374.3226761221</v>
+        <v>179294.7357922918</v>
       </c>
       <c r="N6" t="n">
-        <v>324971.6609229806</v>
+        <v>329892.074039151</v>
       </c>
       <c r="O6" t="n">
-        <v>324971.6609229808</v>
+        <v>329892.074039151</v>
       </c>
       <c r="P6" t="n">
-        <v>324971.6609229808</v>
+        <v>329892.074039151</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074877</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="O3" t="n">
         <v>919.4890146074873</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="G4" t="n">
+        <v>622.7228616087752</v>
+      </c>
+      <c r="H4" t="n">
+        <v>622.7228616087754</v>
+      </c>
+      <c r="I4" t="n">
+        <v>641.1322360870907</v>
+      </c>
+      <c r="J4" t="n">
+        <v>641.1322360870907</v>
+      </c>
+      <c r="K4" t="n">
+        <v>641.1322360870907</v>
+      </c>
+      <c r="L4" t="n">
+        <v>641.1322360870907</v>
+      </c>
+      <c r="M4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="N4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="O4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="P4" t="n">
         <v>622.7228616087748</v>
-      </c>
-      <c r="F4" t="n">
-        <v>622.7228616087748</v>
-      </c>
-      <c r="G4" t="n">
-        <v>622.7228616087747</v>
-      </c>
-      <c r="H4" t="n">
-        <v>622.7228616087747</v>
-      </c>
-      <c r="I4" t="n">
-        <v>641.1322360870909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>641.1322360870909</v>
-      </c>
-      <c r="K4" t="n">
-        <v>641.1322360870909</v>
-      </c>
-      <c r="L4" t="n">
-        <v>641.1322360870909</v>
-      </c>
-      <c r="M4" t="n">
-        <v>622.7228616087747</v>
-      </c>
-      <c r="N4" t="n">
-        <v>622.7228616087747</v>
-      </c>
-      <c r="O4" t="n">
-        <v>622.7228616087747</v>
-      </c>
-      <c r="P4" t="n">
-        <v>622.7228616087747</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831618</v>
+        <v>18.40937447831539</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304574</v>
+        <v>604.3134871304603</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.722861608775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,34 +31925,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451828</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321118</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M17" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U17" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,31 +32308,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32341,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T18" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L19" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P19" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q19" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451831</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025215</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861151</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088322</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857309</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404918</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515578</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895075</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321121</v>
       </c>
       <c r="L21" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956951</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623808</v>
+        <v>470.561514862381</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.4604554824181</v>
+        <v>252.4604554824182</v>
       </c>
       <c r="R21" t="n">
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153593</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H22" t="n">
-        <v>14.74197141452661</v>
+        <v>14.74197141452662</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J22" t="n">
-        <v>117.2273125672529</v>
+        <v>117.227312567253</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L22" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598673</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
         <v>37.85614822451829</v>
@@ -32709,40 +32709,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
@@ -32797,13 +32797,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N24" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
         <v>377.6671011130263</v>
@@ -32818,7 +32818,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32864,7 +32864,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
@@ -32873,7 +32873,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
         <v>259.9139193258508</v>
@@ -32885,7 +32885,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
@@ -32894,13 +32894,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
         <v>37.85614822451829</v>
@@ -32946,40 +32946,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
@@ -33034,13 +33034,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N27" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
         <v>377.6671011130263</v>
@@ -33055,7 +33055,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33101,7 +33101,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
@@ -33110,7 +33110,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
         <v>259.9139193258508</v>
@@ -33122,7 +33122,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
@@ -33131,13 +33131,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
         <v>37.85614822451829</v>
@@ -33183,40 +33183,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
@@ -33271,13 +33271,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N30" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
         <v>377.6671011130263</v>
@@ -33292,7 +33292,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33338,7 +33338,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
@@ -33347,7 +33347,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
         <v>259.9139193258508</v>
@@ -33359,7 +33359,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
@@ -33368,13 +33368,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
         <v>37.85614822451829</v>
@@ -33420,40 +33420,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
@@ -33508,13 +33508,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N33" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
         <v>377.6671011130263</v>
@@ -33529,7 +33529,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33575,7 +33575,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
@@ -33584,7 +33584,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
         <v>259.9139193258508</v>
@@ -33596,7 +33596,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
@@ -33605,13 +33605,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
         <v>37.85614822451829</v>
@@ -33657,40 +33657,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
@@ -33745,13 +33745,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N36" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
         <v>377.6671011130263</v>
@@ -33766,7 +33766,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33812,7 +33812,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
@@ -33821,7 +33821,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
         <v>259.9139193258508</v>
@@ -33833,7 +33833,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
@@ -33842,13 +33842,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
         <v>37.85614822451829</v>
@@ -33894,40 +33894,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
@@ -33982,13 +33982,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N39" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
         <v>377.6671011130263</v>
@@ -34003,7 +34003,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34049,7 +34049,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
@@ -34058,7 +34058,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
         <v>259.9139193258508</v>
@@ -34070,7 +34070,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
@@ -34079,13 +34079,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936387</v>
       </c>
       <c r="K41" t="n">
         <v>470.2008070025213</v>
@@ -34371,7 +34371,7 @@
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025211</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
         <v>583.3256790861149</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>181.5248539577528</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L12" t="n">
-        <v>622.7228616087748</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>270.2622723348195</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078699</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.0181550659737</v>
+        <v>69.98609258703253</v>
       </c>
       <c r="K15" t="n">
-        <v>370.2098690080894</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P15" t="n">
-        <v>562.1554623386331</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>92.62341400781841</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>479.5580283661577</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36050,19 +36050,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N19" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815595</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891397</v>
+        <v>430.15165438914</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188051</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962882</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722507</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8669931509803</v>
+        <v>352.5043145717692</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179366</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>243.6926936986962</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322458</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058018</v>
       </c>
       <c r="K22" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295875</v>
       </c>
       <c r="L22" t="n">
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N22" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L23" t="n">
-        <v>354.7365290461747</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020743</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L24" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N24" t="n">
         <v>383.0429961922271</v>
@@ -36454,10 +36454,10 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>559.2689251794196</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36527,13 +36527,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
         <v>52.68079795403621</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
-        <v>465.6037335218341</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540095</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N27" t="n">
         <v>383.0429961922271</v>
@@ -36691,13 +36691,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>464.9285176949535</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36764,13 +36764,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
         <v>52.68079795403621</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969968</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
-        <v>420.4529489191572</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>402.7606779540101</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N30" t="n">
         <v>383.0429961922271</v>
@@ -36934,7 +36934,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -37001,13 +37001,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
         <v>52.68079795403621</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M32" t="n">
-        <v>491.6096643845889</v>
+        <v>491.6096643845877</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1091904063826</v>
+        <v>165.5170988108476</v>
       </c>
       <c r="K33" t="n">
-        <v>402.7606779540096</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
         <v>383.0429961922271</v>
@@ -37171,7 +37171,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37238,13 +37238,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
         <v>52.68079795403621</v>
@@ -37308,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722605</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5043145717674</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N36" t="n">
         <v>383.0429961922271</v>
@@ -37408,7 +37408,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37475,13 +37475,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
         <v>52.68079795403621</v>
@@ -37545,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8669931509803</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N39" t="n">
         <v>383.0429961922271</v>
@@ -37645,7 +37645,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37712,13 +37712,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
         <v>52.68079795403621</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669524</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575407</v>
@@ -37861,7 +37861,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509803</v>
+        <v>352.5043145717692</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158208</v>
@@ -37882,7 +37882,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575405</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
         <v>347.5592641161276</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>92.62341400781887</v>
       </c>
       <c r="K45" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158208</v>
@@ -38113,7 +38113,7 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>414.6721543127105</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
         <v>322.5559691322457</v>
